--- a/StructureDefinition-us-core-authentication-time.xlsx
+++ b/StructureDefinition-us-core-authentication-time.xlsx
@@ -135,7 +135,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:DocumentReference.authenticator</t>
+    <t>element:DocumentReference</t>
   </si>
   <si>
     <t>ID</t>
